--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>495906.4234767241</v>
+        <v>587028.2359746821</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12482428.7691843</v>
+        <v>12535336.02914634</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7045598.283948288</v>
+        <v>7622616.185043051</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9271465.756268924</v>
+        <v>8989940.358341986</v>
       </c>
     </row>
     <row r="11">
@@ -668,64 +670,64 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>39.70122005611973</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="H2" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="I2" t="n">
-        <v>125.4713171199747</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="X2" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -744,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>82.45891482618649</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>48.77881175550657</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -795,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>116.3937254205879</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T4" t="n">
         <v>187.5255871663199</v>
@@ -874,10 +876,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663199</v>
+        <v>5.57332708602759</v>
       </c>
       <c r="W4" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>211.222840723037</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>239.8079481415044</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>239.8079481415044</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>239.8079481415044</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="6">
@@ -972,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>83.4174700168312</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>46.58246887583886</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>239.8079481415044</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>195.8922433748299</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>5.573327086027485</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="G8" t="n">
-        <v>245.9843812644192</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="V9" t="n">
-        <v>202.3430330194681</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.3663121167308</v>
+        <v>112.751666541193</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553079</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>4.791624857388452</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>269.3333506440071</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>105.0076120744428</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9899243971805</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>177.606538748304</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>383.9821873027535</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1822,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>62.09581973348946</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>87.44479881664979</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>89.61172450801142</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>1.487860919361556</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2059,7 +2061,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2084,22 +2086,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>83.56741318567265</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>16.34825474388549</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>80.50796942908632</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -2375,16 +2377,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>85.62798561631635</v>
       </c>
       <c r="W23" t="n">
-        <v>102.9230408272505</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>274.59322996937</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>142.6955872305731</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>377.1907161063534</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.1495662496043</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,7 +2614,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2767,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>105.0076120744425</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>74.75724224607676</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>75.45713216103701</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>283.9746808062634</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.6724864000053</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>186.2120483577847</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3035,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>85.17289288834992</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -3077,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>201.6622187863182</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3128,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492373</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>114.2656173771019</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3269,22 +3271,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>28.95911863073125</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>120.5643831243135</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>150.3894554942373</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3484,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>253.0207069265287</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>125.9673299442115</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,19 +3556,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>136.1540251012681</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3597,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>77.31354443380452</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>205.526188887224</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>381.524508887924</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>199.7325946875383</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3907,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>69.51608747327981</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>104.2590660175762</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>168.1158122680976</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>98.76492394485687</v>
+        <v>43.54113333379298</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -4153,7 +4155,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487947</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C2" t="n">
-        <v>560.6825636487947</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D2" t="n">
-        <v>560.6825636487947</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E2" t="n">
-        <v>560.6825636487947</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F2" t="n">
-        <v>520.5803211678657</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513809</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678498</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058947</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644754</v>
@@ -4346,34 +4348,34 @@
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652795</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487947</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487947</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.27357399906981</v>
+        <v>533.499507267843</v>
       </c>
       <c r="C3" t="n">
-        <v>64.27357399906981</v>
+        <v>533.499507267843</v>
       </c>
       <c r="D3" t="n">
-        <v>64.27357399906981</v>
+        <v>533.499507267843</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906981</v>
+        <v>450.2076741100789</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906981</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>166.133934959413</v>
       </c>
       <c r="H3" t="n">
         <v>64.27357399906981</v>
@@ -4410,7 +4412,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L3" t="n">
         <v>183.5548280772649</v>
@@ -4419,40 +4421,40 @@
         <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843278</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843278</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843278</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843278</v>
       </c>
       <c r="V3" t="n">
-        <v>632.532929048524</v>
+        <v>722.9192922843278</v>
       </c>
       <c r="W3" t="n">
-        <v>443.1131440320393</v>
+        <v>533.499507267843</v>
       </c>
       <c r="X3" t="n">
-        <v>253.6933590155545</v>
+        <v>533.499507267843</v>
       </c>
       <c r="Y3" t="n">
-        <v>64.27357399906981</v>
+        <v>533.499507267843</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J4" t="n">
         <v>15.00204697330559</v>
@@ -4495,43 +4497,43 @@
         <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295949</v>
+        <v>373.5399563830974</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242515</v>
+        <v>559.1902876777541</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608017</v>
+        <v>721.9284911143043</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846274</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652795</v>
+        <v>612.5614882768593</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652795</v>
+        <v>423.1417032603746</v>
       </c>
       <c r="T4" t="n">
-        <v>560.6825636487947</v>
+        <v>233.7219182438898</v>
       </c>
       <c r="U4" t="n">
-        <v>371.26277863231</v>
+        <v>44.30213322740502</v>
       </c>
       <c r="V4" t="n">
-        <v>181.8429936158252</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.18463585132035</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="C5" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D5" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E5" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F5" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G5" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>40.41888584470354</v>
+        <v>21.03371160678493</v>
       </c>
       <c r="K5" t="n">
-        <v>122.9820404192956</v>
+        <v>80.81213159058943</v>
       </c>
       <c r="L5" t="n">
-        <v>262.310696260548</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M5" t="n">
-        <v>449.0101090859555</v>
+        <v>347.1218190644749</v>
       </c>
       <c r="N5" t="n">
-        <v>643.3443219779374</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O5" t="n">
-        <v>813.5133472948967</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P5" t="n">
-        <v>924.2476725444228</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q5" t="n">
-        <v>959.2317925660177</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R5" t="n">
-        <v>959.2317925660177</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S5" t="n">
-        <v>959.2317925660177</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T5" t="n">
-        <v>745.8753877952732</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U5" t="n">
-        <v>503.6451371472889</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V5" t="n">
-        <v>261.4148864993047</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="W5" t="n">
-        <v>19.18463585132035</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="X5" t="n">
-        <v>19.18463585132035</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.18463585132035</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.18463585132035</v>
+        <v>581.8870116452113</v>
       </c>
       <c r="C6" t="n">
-        <v>19.18463585132035</v>
+        <v>407.4339823640843</v>
       </c>
       <c r="D6" t="n">
-        <v>19.18463585132035</v>
+        <v>258.499572702833</v>
       </c>
       <c r="E6" t="n">
-        <v>19.18463585132035</v>
+        <v>99.26211769737751</v>
       </c>
       <c r="F6" t="n">
-        <v>19.18463585132035</v>
+        <v>99.26211769737751</v>
       </c>
       <c r="G6" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>85.3014154816622</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>152.9092351450191</v>
+        <v>67.13418877024182</v>
       </c>
       <c r="L6" t="n">
-        <v>290.1388331607128</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M6" t="n">
-        <v>469.6361695153174</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N6" t="n">
-        <v>668.2929111679819</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O6" t="n">
-        <v>827.8052238367422</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P6" t="n">
-        <v>936.4948513640409</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q6" t="n">
-        <v>959.2317925660177</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R6" t="n">
-        <v>959.2317925660177</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S6" t="n">
-        <v>912.178793701534</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T6" t="n">
-        <v>912.178793701534</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U6" t="n">
-        <v>912.178793701534</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V6" t="n">
-        <v>677.0266854697913</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="W6" t="n">
-        <v>434.7964348218071</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="X6" t="n">
-        <v>226.9449346162743</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.18463585132035</v>
+        <v>750.1023486652794</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>761.3608396621491</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="C7" t="n">
-        <v>761.3608396621491</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="D7" t="n">
-        <v>761.3608396621491</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="E7" t="n">
-        <v>613.447746079756</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="F7" t="n">
-        <v>466.5577985818456</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="G7" t="n">
-        <v>297.950953577229</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="H7" t="n">
-        <v>143.6963104769941</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I7" t="n">
-        <v>19.18463585132035</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J7" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>120.2325654469301</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L7" t="n">
-        <v>305.0655603477483</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M7" t="n">
-        <v>453.8659557426991</v>
+        <v>465.2530182692151</v>
       </c>
       <c r="N7" t="n">
-        <v>659.6893205788033</v>
+        <v>650.9033495638718</v>
       </c>
       <c r="O7" t="n">
-        <v>833.7842159674021</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="P7" t="n">
-        <v>959.2317925660177</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Q7" t="n">
-        <v>959.2317925660177</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="R7" t="n">
-        <v>959.2317925660177</v>
+        <v>612.561488276859</v>
       </c>
       <c r="S7" t="n">
-        <v>761.3608396621491</v>
+        <v>423.1417032603743</v>
       </c>
       <c r="T7" t="n">
-        <v>761.3608396621491</v>
+        <v>233.7219182438896</v>
       </c>
       <c r="U7" t="n">
-        <v>761.3608396621491</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="V7" t="n">
-        <v>761.3608396621491</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="W7" t="n">
-        <v>761.3608396621491</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="X7" t="n">
-        <v>761.3608396621491</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="Y7" t="n">
-        <v>761.3608396621491</v>
+        <v>38.67250990818523</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1404.854736667761</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="C8" t="n">
-        <v>1035.89221972735</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="D8" t="n">
-        <v>677.6265211205991</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="E8" t="n">
-        <v>291.8382685223549</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="F8" t="n">
-        <v>291.8382685223549</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711874</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.994068643573</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Y8" t="n">
-        <v>1404.854736667761</v>
+        <v>750.1023486652808</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.2981106200058</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8450813388788</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9106716776275</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6732166721721</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F9" t="n">
-        <v>302.138658699057</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2626649141729</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H9" t="n">
-        <v>69.80729798300612</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J9" t="n">
-        <v>162.7939228784861</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K9" t="n">
-        <v>319.8851896233148</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L9" t="n">
-        <v>577.4363251833024</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>897.3432206518116</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N9" t="n">
-        <v>1240.125744646443</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O9" t="n">
-        <v>1531.484990901009</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P9" t="n">
-        <v>2061.271547415447</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q9" t="n">
-        <v>2154.745546059887</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S9" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T9" t="n">
-        <v>1973.749505378629</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U9" t="n">
-        <v>1973.749505378629</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.362603338762</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.12524661056</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.273746405028</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.513447640074</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>636.2117764014495</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>636.2117764014495</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>636.2117764014495</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>636.2117764014495</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>489.3218289035391</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>320.6330054664541</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J10" t="n">
-        <v>58.6963092017423</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246705</v>
+        <v>106.7151088594235</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728883</v>
+        <v>216.0634826394166</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640786</v>
+        <v>401.7138139340736</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>587.3641452287306</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152952</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271086</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693647</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R10" t="n">
-        <v>1486.355378693647</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S10" t="n">
-        <v>1486.355378693647</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T10" t="n">
-        <v>1486.355378693647</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U10" t="n">
-        <v>1197.229057667671</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="V10" t="n">
-        <v>942.5445694617837</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="W10" t="n">
-        <v>653.1273994248231</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="X10" t="n">
-        <v>425.1378485268058</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.3452693832757</v>
+        <v>750.1023486652808</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1150.146566788942</v>
+        <v>1624.63871203243</v>
       </c>
       <c r="C11" t="n">
-        <v>1150.146566788942</v>
+        <v>1255.676195092018</v>
       </c>
       <c r="D11" t="n">
-        <v>791.8808681821918</v>
+        <v>897.4104964852677</v>
       </c>
       <c r="E11" t="n">
-        <v>406.0926155839475</v>
+        <v>897.4104964852677</v>
       </c>
       <c r="F11" t="n">
-        <v>406.0926155839475</v>
+        <v>486.4245916956601</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>71.35214154065659</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923659</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653545</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X11" t="n">
-        <v>1808.800296392465</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y11" t="n">
-        <v>1536.746406853064</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>752.7622949738579</v>
+        <v>163.837793613838</v>
       </c>
       <c r="C13" t="n">
-        <v>583.826112045951</v>
+        <v>163.837793613838</v>
       </c>
       <c r="D13" t="n">
-        <v>477.7578170212613</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E13" t="n">
-        <v>477.7578170212613</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5221,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1383.192889845645</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>1155.203338947628</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>934.4107598040977</v>
+        <v>163.837793613838</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1698.50962791956</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
-        <v>1329.547110979148</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>971.2814123723979</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>585.4931597741536</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>585.4931597741536</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
         <v>406.0926155839475</v>
@@ -5276,10 +5278,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5291,7 +5293,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.97538618064</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="Y14" t="n">
-        <v>1698.50962791956</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.7237329438971</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>775.7875500159902</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>625.6709106036544</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
         <v>477.7578170212613</v>
@@ -5470,16 +5472,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V16" t="n">
-        <v>1864.571497852645</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W16" t="n">
-        <v>1575.154327815684</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X16" t="n">
-        <v>1347.164776917667</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
-        <v>1126.372197774137</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1565.4402645816</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C17" t="n">
-        <v>1196.477747641188</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D17" t="n">
-        <v>838.212049034438</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E17" t="n">
-        <v>452.4237964361938</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F17" t="n">
-        <v>452.4237964361938</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>298.629863103029</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2678.274518176916</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2325.505862906802</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X17" t="n">
-        <v>1952.040104645722</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y17" t="n">
-        <v>1952.040104645722</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5616,28 +5618,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>845.4915543310553</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C19" t="n">
-        <v>845.4915543310553</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>695.3749149187196</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>547.4618213363265</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>400.5718738384161</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1925.791658270955</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1734.105774097782</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1512.339158667308</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1223.236291792951</v>
       </c>
       <c r="V19" t="n">
-        <v>1134.908724368016</v>
+        <v>968.5518035870643</v>
       </c>
       <c r="W19" t="n">
-        <v>845.4915543310553</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="X19" t="n">
-        <v>845.4915543310553</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y19" t="n">
-        <v>845.4915543310553</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1274.539111149739</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C20" t="n">
-        <v>905.5765942093274</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D20" t="n">
-        <v>905.5765942093274</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E20" t="n">
-        <v>905.5765942093274</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5762,40 +5764,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3309.092432978983</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794323</v>
+        <v>3055.56195625282</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450752</v>
+        <v>2724.499068909249</v>
       </c>
       <c r="W20" t="n">
-        <v>2424.744041450752</v>
+        <v>2371.730413639134</v>
       </c>
       <c r="X20" t="n">
-        <v>2051.278283189672</v>
+        <v>1998.264655378055</v>
       </c>
       <c r="Y20" t="n">
-        <v>1661.138951213861</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="21">
@@ -5820,22 +5822,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,10 +5849,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1861.970701620179</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C22" t="n">
-        <v>1693.034518692272</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D22" t="n">
-        <v>1611.713337450771</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E22" t="n">
-        <v>1611.713337450771</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.82338995286</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.82338995286</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.82338995286</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U22" t="n">
-        <v>3036.502954734813</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V22" t="n">
-        <v>2781.818466528926</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W22" t="n">
-        <v>2492.401296491966</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X22" t="n">
-        <v>2264.411745593949</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y22" t="n">
-        <v>2043.619166450419</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1934.181533884357</v>
+        <v>1519.109083729354</v>
       </c>
       <c r="C23" t="n">
-        <v>1565.219016943946</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D23" t="n">
-        <v>1206.953318337195</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E23" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G23" t="n">
         <v>406.0926155839475</v>
@@ -5987,10 +5989,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810548</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -5999,7 +6001,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939507</v>
@@ -6023,16 +6025,16 @@
         <v>2755.806928794323</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450752</v>
+        <v>2669.314014030367</v>
       </c>
       <c r="W23" t="n">
-        <v>2320.781373948479</v>
+        <v>2669.314014030367</v>
       </c>
       <c r="X23" t="n">
-        <v>2320.781373948479</v>
+        <v>2295.848255769287</v>
       </c>
       <c r="Y23" t="n">
-        <v>2320.781373948479</v>
+        <v>1905.708923793476</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218339</v>
@@ -6090,28 +6092,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218339</v>
@@ -6169,28 +6171,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U25" t="n">
-        <v>1638.191681214136</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V25" t="n">
-        <v>1638.191681214136</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W25" t="n">
-        <v>1638.191681214136</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.054724415577</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.262145272047</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1133.347320219774</v>
+        <v>1569.101759311878</v>
       </c>
       <c r="C26" t="n">
-        <v>1133.347320219774</v>
+        <v>1569.101759311878</v>
       </c>
       <c r="D26" t="n">
-        <v>775.0816216130238</v>
+        <v>1569.101759311878</v>
       </c>
       <c r="E26" t="n">
-        <v>775.0816216130238</v>
+        <v>1183.313506713634</v>
       </c>
       <c r="F26" t="n">
-        <v>364.0957168234162</v>
+        <v>772.3276019240266</v>
       </c>
       <c r="G26" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6236,40 +6238,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410102</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066531</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.953133796417</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X26" t="n">
-        <v>1904.487375535337</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y26" t="n">
-        <v>1514.348043559525</v>
+        <v>1955.701599376</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6315,37 +6317,37 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y27" t="n">
         <v>1109.759191501176</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>646.6939999491682</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C28" t="n">
-        <v>477.7578170212613</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D28" t="n">
-        <v>477.7578170212613</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E28" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F28" t="n">
         <v>477.7578170212613</v>
@@ -6379,7 +6381,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
         <v>111.6347488791189</v>
@@ -6415,19 +6417,19 @@
         <v>1927.294548088492</v>
       </c>
       <c r="U28" t="n">
-        <v>1821.226253063803</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V28" t="n">
-        <v>1566.541764857916</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W28" t="n">
-        <v>1277.124594820955</v>
+        <v>1348.774511177175</v>
       </c>
       <c r="X28" t="n">
-        <v>1049.135043922938</v>
+        <v>1348.774511177175</v>
       </c>
       <c r="Y28" t="n">
-        <v>828.3424647794079</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.569348694472</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C29" t="n">
-        <v>1122.60683175406</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D29" t="n">
-        <v>764.3411331473096</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="E29" t="n">
-        <v>764.3411331473096</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>353.3552283577021</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.308520734405</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.169188758593</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6561,7 +6563,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>311.7508871962312</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C31" t="n">
-        <v>311.7508871962312</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D31" t="n">
-        <v>311.7508871962312</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.6347488791189</v>
@@ -6646,25 +6648,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088492</v>
+        <v>1739.201569949316</v>
       </c>
       <c r="T31" t="n">
-        <v>1705.527932658018</v>
+        <v>1517.434954518842</v>
       </c>
       <c r="U31" t="n">
-        <v>1416.425065783662</v>
+        <v>1228.332087644485</v>
       </c>
       <c r="V31" t="n">
-        <v>1161.740577577775</v>
+        <v>973.6475994385985</v>
       </c>
       <c r="W31" t="n">
-        <v>872.3234075408143</v>
+        <v>684.2304294016378</v>
       </c>
       <c r="X31" t="n">
-        <v>644.3338566427969</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y31" t="n">
-        <v>423.5412774992668</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796243</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>552.8079389392126</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>194.5422403324621</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
@@ -6698,10 +6700,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6713,7 +6715,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296684</v>
@@ -6722,28 +6724,28 @@
         <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W32" t="n">
-        <v>3325.60582160917</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y32" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C33" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D33" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E33" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F33" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G33" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H33" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I33" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J33" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R33" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S33" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T33" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U33" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V33" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W33" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X33" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y33" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1464.82338995286</v>
+        <v>2489.924953962483</v>
       </c>
       <c r="C34" t="n">
-        <v>1464.82338995286</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.82338995286</v>
+        <v>2170.872131622241</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.82338995286</v>
+        <v>2022.959038039848</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.82338995286</v>
+        <v>1876.069090541938</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.82338995286</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.82338995286</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I34" t="n">
         <v>1464.82338995286</v>
@@ -6862,7 +6864,7 @@
         <v>1713.933205348672</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.493003797168</v>
       </c>
       <c r="M34" t="n">
         <v>2374.650049396717</v>
@@ -6874,34 +6876,34 @@
         <v>3015.388025022995</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456654</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R34" t="n">
         <v>3235.775364366697</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193524</v>
+        <v>3120.355548834271</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.32286476305</v>
+        <v>3120.355548834271</v>
       </c>
       <c r="U34" t="n">
-        <v>2533.219997888693</v>
+        <v>3120.355548834271</v>
       </c>
       <c r="V34" t="n">
-        <v>2278.535509682807</v>
+        <v>3120.355548834271</v>
       </c>
       <c r="W34" t="n">
-        <v>1989.118339645846</v>
+        <v>3120.355548834271</v>
       </c>
       <c r="X34" t="n">
-        <v>1761.128788747829</v>
+        <v>2892.365997936253</v>
       </c>
       <c r="Y34" t="n">
-        <v>1540.336209604299</v>
+        <v>2671.573418792723</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1506.363819949359</v>
+        <v>1190.127582679363</v>
       </c>
       <c r="C35" t="n">
-        <v>1137.401303008947</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="D35" t="n">
-        <v>779.135604402197</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E35" t="n">
-        <v>393.3473518039528</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F35" t="n">
-        <v>393.3473518039528</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>393.3473518039528</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>95.76375141272001</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.60582160917</v>
@@ -6968,19 +6970,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2656.568750250372</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X35" t="n">
-        <v>2283.102991989293</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y35" t="n">
-        <v>1892.963660013481</v>
+        <v>1576.727422743484</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>827.0643955080121</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>311.7508871962312</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="C37" t="n">
-        <v>311.7508871962312</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="D37" t="n">
-        <v>311.7508871962312</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="E37" t="n">
-        <v>163.8377936138381</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F37" t="n">
-        <v>163.8377936138381</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G37" t="n">
-        <v>163.8377936138381</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088492</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T37" t="n">
-        <v>1775.386007185222</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U37" t="n">
-        <v>1486.283140310866</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V37" t="n">
-        <v>1231.598652104979</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W37" t="n">
-        <v>942.1814820680183</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="X37" t="n">
-        <v>714.191931170001</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="Y37" t="n">
-        <v>493.3993520264709</v>
+        <v>2022.959038039849</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1544.306735920717</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C38" t="n">
-        <v>1175.344218980305</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D38" t="n">
-        <v>817.078520373555</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>817.078520373555</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
         <v>406.0926155839475</v>
@@ -7169,55 +7171,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450752</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180638</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X38" t="n">
-        <v>1934.446067896529</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="Y38" t="n">
-        <v>1544.306735920717</v>
+        <v>2472.40716589034</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,31 +7271,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
         <v>1109.759191501176</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1783.876212293103</v>
+        <v>1633.759572880769</v>
       </c>
       <c r="C40" t="n">
-        <v>1614.940029365196</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.82338995286</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348672</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396717</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022995</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.60582160917</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T40" t="n">
-        <v>3247.511332282094</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U40" t="n">
-        <v>2958.408465407738</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V40" t="n">
-        <v>2703.723977201851</v>
+        <v>2325.617786891499</v>
       </c>
       <c r="W40" t="n">
-        <v>2414.30680716489</v>
+        <v>2036.200616854539</v>
       </c>
       <c r="X40" t="n">
-        <v>2186.317256266873</v>
+        <v>2036.200616854539</v>
       </c>
       <c r="Y40" t="n">
-        <v>1965.524677123343</v>
+        <v>1815.408037711009</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1904.487375535338</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C41" t="n">
-        <v>1535.524858594926</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.259159988176</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E41" t="n">
-        <v>791.4709073899314</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F41" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810568</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7442,19 +7444,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.784676410103</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V41" t="n">
-        <v>2630.721789066532</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W41" t="n">
-        <v>2277.953133796418</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X41" t="n">
-        <v>1904.487375535338</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y41" t="n">
-        <v>1904.487375535338</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="42">
@@ -7482,19 +7484,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,10 +7508,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>917.6163259372726</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C43" t="n">
-        <v>748.6801430093657</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>598.5635035970299</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E43" t="n">
-        <v>450.6504100146368</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218343</v>
@@ -7570,13 +7572,13 @@
         <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1837.46409084602</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1837.46409084602</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V43" t="n">
-        <v>1837.46409084602</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W43" t="n">
-        <v>1548.04692080906</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X43" t="n">
-        <v>1320.057369911042</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y43" t="n">
-        <v>1099.264790767512</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2005.586939522201</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810553</v>
@@ -7655,43 +7657,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>3155.791869823214</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X44" t="n">
-        <v>2782.326111562134</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y44" t="n">
-        <v>2392.186779586323</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,10 +7745,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.3234075408143</v>
+        <v>2088.986216231252</v>
       </c>
       <c r="C46" t="n">
-        <v>872.3234075408143</v>
+        <v>1920.050033303346</v>
       </c>
       <c r="D46" t="n">
-        <v>772.5608581015649</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191718</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212614</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959804</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279953</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658018</v>
+        <v>3103.839206178696</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783662</v>
+        <v>2814.73633930434</v>
       </c>
       <c r="V46" t="n">
-        <v>1161.740577577775</v>
+        <v>2560.051851098453</v>
       </c>
       <c r="W46" t="n">
-        <v>872.3234075408143</v>
+        <v>2270.634681061492</v>
       </c>
       <c r="X46" t="n">
-        <v>872.3234075408143</v>
+        <v>2270.634681061492</v>
       </c>
       <c r="Y46" t="n">
-        <v>872.3234075408143</v>
+        <v>2270.634681061492</v>
       </c>
     </row>
   </sheetData>
@@ -8143,16 +8145,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>82.97369176944322</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777609</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>73.01783107116266</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8380,19 +8382,19 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>121.470059571782</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O7" t="n">
-        <v>163.0416663658825</v>
+        <v>98.86065188594048</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.89011047839809</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8474,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.9801593665282</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8547,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8614,19 +8616,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>162.4747015415544</v>
+        <v>98.29368706161306</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10422,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -22556,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>367.1748256855917</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399025</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22606,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>184.0684315413184</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -22632,16 +22634,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>75.18616562921446</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -22683,16 +22685,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>116.4068617288374</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>64.16939599459968</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098449</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22726,7 +22728,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917631</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378023</v>
+        <v>36.19408632378017</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713042</v>
+        <v>98.73949432713036</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750814</v>
+        <v>246.5643162378004</v>
       </c>
       <c r="W4" t="n">
-        <v>121.3504611604966</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>217.5613044873861</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938904</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>1.429022391929038</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>11.3468380807962</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>87.94431032863048</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>109.4330205759086</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="6">
@@ -22860,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>52.74631934894413</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664346</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>45.4458084395867</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183515</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S6" t="n">
-        <v>101.3896523701527</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0194028815133</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>11.88703501941518</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22948,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176904</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>9.473638525288806</v>
+        <v>19.25466862917639</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>36.19408632378025</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>98.73949432713044</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>246.5643162378005</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23021,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>216.757832896167</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753912</v>
       </c>
       <c r="G8" t="n">
-        <v>165.8863535792076</v>
+        <v>225.5722460637378</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>129.3682389399021</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368126</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714232</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>60.69123123399618</v>
       </c>
       <c r="V9" t="n">
-        <v>30.4575541299572</v>
+        <v>45.27499998310506</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>64.1693959945994</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>18.24739803715727</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.46566806520653</v>
+        <v>67.08031364074427</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23188,16 +23190,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23221,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845744</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.816139529932</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>116.9045880120465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>43.60786094376951</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>21.59472895491427</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>233.3151869051494</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>2.25575135330007</v>
       </c>
     </row>
     <row r="15">
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23710,10 +23712,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>190.0418235903385</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23741,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>323.4769268368037</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>64.81119518318334</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>76.4140837510168</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>87.44429175068579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23972,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>323.3086325560388</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>187.5697153957346</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24029,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>68.10750358912604</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24181,13 +24183,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24218,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24263,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>242.1242728538186</v>
       </c>
       <c r="W23" t="n">
-        <v>246.3179278901625</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24418,16 +24420,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>11.61860823624289</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>83.01406815846406</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.543125557127155</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>6.772159403849173</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396202</v>
@@ -24500,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>181.2042261311704</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>143.827411106018</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>306.4732379112248</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>126.94704484719</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.15949378193204</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>3.556976973657214</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24923,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>296.7574771839119</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24965,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>168.0688818921509</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>75.50340795434003</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25157,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>12.61781114219472</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,10 +25210,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>265.67355553174</v>
       </c>
     </row>
     <row r="36">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>69.15949378193187</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>33.50229141006233</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>256.766511719269</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25397,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25442,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>233.5770755772009</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25567,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>142.2354048423647</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>46.61145443660405</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>25.35153685378742</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>51.26257727136371</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>75.90496054965143</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>147.8785773062518</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,16 +25918,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>159.6364462020373</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>49.85054907335548</v>
+        <v>105.0743396844194</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>515138.8547819281</v>
+        <v>471299.3736439904</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>730204.1836583102</v>
+        <v>471299.3736439906</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879301.7058160453</v>
+        <v>879301.7058160452</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879301.7058160449</v>
+        <v>879301.7058160452</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>879301.7058160453</v>
+        <v>879301.7058160449</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879301.7058160451</v>
+        <v>879301.7058160449</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879301.7058160451</v>
+        <v>879301.7058160449</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>879301.7058160454</v>
+        <v>879301.7058160451</v>
       </c>
     </row>
   </sheetData>
@@ -26314,37 +26316,37 @@
         <v>171419.5356187815</v>
       </c>
       <c r="C2" t="n">
-        <v>186902.5922223888</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="D2" t="n">
-        <v>265569.8802231799</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="E2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="F2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="G2" t="n">
         <v>323947.2440223744</v>
       </c>
-      <c r="F2" t="n">
-        <v>323947.2440223744</v>
-      </c>
-      <c r="G2" t="n">
-        <v>323947.2440223743</v>
-      </c>
       <c r="H2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="I2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="J2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="K2" t="n">
         <v>323947.2440223745</v>
       </c>
-      <c r="K2" t="n">
-        <v>323947.2440223744</v>
-      </c>
       <c r="L2" t="n">
+        <v>323947.2440223746</v>
+      </c>
+      <c r="M2" t="n">
         <v>323947.2440223743</v>
-      </c>
-      <c r="M2" t="n">
-        <v>323947.2440223745</v>
       </c>
       <c r="N2" t="n">
         <v>323947.2440223744</v>
@@ -26366,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>57873.59701082209</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>316774.1501411055</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669101</v>
+        <v>627134.6436336673</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>13455.80667946127</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>76511.18310969985</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608622</v>
+        <v>160456.4418678773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>11335.86481693335</v>
       </c>
       <c r="C4" t="n">
-        <v>13660.89916846052</v>
+        <v>11335.86481693335</v>
       </c>
       <c r="D4" t="n">
-        <v>17804.0076988212</v>
+        <v>11335.86481693335</v>
       </c>
       <c r="E4" t="n">
         <v>10380.34706710378</v>
@@ -26433,16 +26435,16 @@
         <v>10380.3470671038</v>
       </c>
       <c r="H4" t="n">
-        <v>10380.3470671038</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="I4" t="n">
         <v>10380.3470671038</v>
       </c>
       <c r="J4" t="n">
+        <v>10380.3470671038</v>
+      </c>
+      <c r="K4" t="n">
         <v>10380.34706710378</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10380.3470671038</v>
       </c>
       <c r="L4" t="n">
         <v>10380.3470671038</v>
@@ -26451,13 +26453,13 @@
         <v>10380.34706710378</v>
       </c>
       <c r="N4" t="n">
-        <v>10380.3470671038</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="O4" t="n">
-        <v>10380.3470671038</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="P4" t="n">
-        <v>10380.3470671038</v>
+        <v>10380.34706710378</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>61145.70223437328</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-488259.0321306109</v>
+        <v>-488259.0321306108</v>
       </c>
       <c r="C6" t="n">
-        <v>54222.39380873292</v>
+        <v>103097.8703902346</v>
       </c>
       <c r="D6" t="n">
-        <v>-154207.359472619</v>
+        <v>103097.8703902343</v>
       </c>
       <c r="E6" t="n">
-        <v>-36770.18937303271</v>
+        <v>-387874.0872397898</v>
       </c>
       <c r="F6" t="n">
         <v>239260.5563938774</v>
@@ -26537,22 +26539,22 @@
         <v>239260.5563938775</v>
       </c>
       <c r="H6" t="n">
-        <v>239260.5563938774</v>
+        <v>239260.5563938773</v>
       </c>
       <c r="I6" t="n">
-        <v>239260.5563938773</v>
+        <v>239260.5563938776</v>
       </c>
       <c r="J6" t="n">
         <v>190195.6116653328</v>
       </c>
       <c r="K6" t="n">
-        <v>225804.749714416</v>
+        <v>239260.5563938774</v>
       </c>
       <c r="L6" t="n">
-        <v>162749.3732841774</v>
+        <v>239260.5563938775</v>
       </c>
       <c r="M6" t="n">
-        <v>167169.2037777912</v>
+        <v>78804.11452599995</v>
       </c>
       <c r="N6" t="n">
         <v>239260.5563938774</v>
@@ -26561,7 +26563,7 @@
         <v>239260.5563938775</v>
       </c>
       <c r="P6" t="n">
-        <v>239260.5563938773</v>
+        <v>239260.5563938774</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>593.4761003380646</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,46 +26792,46 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>239.8079481415044</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26960,13 +26962,13 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>45.00615942516004</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>260.2345641996195</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>541.3067596803934</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>52.28236097518456</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>302.3070085846588</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761297</v>
+        <v>643.8758682359723</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>52.28236097518445</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>302.3070085846587</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761297</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>52.28236097518456</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>302.3070085846588</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761297</v>
+        <v>643.8758682359723</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31148,7 +31150,7 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
         <v>73.24660833550075</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.385833569198248</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>24.43391804055156</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>91.97984867651554</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>202.49464189374</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>303.4869768779019</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>376.5024309712528</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>418.9314987074821</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>425.7102483359667</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>401.9861157822516</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>343.0858495426698</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>257.6431848457574</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411496</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>54.36718245810513</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>10.44398644916533</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.276533498840365</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>12.32862615985301</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>43.95082441182838</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>120.6044214847382</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>206.1321659070427</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>277.170135351282</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>323.4444746842452</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>332.0050874900651</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>303.7197925947075</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>243.7619099671572</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.9483813607456</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>79.25705355080798</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>23.71104985784624</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>5.145325813308313</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.070202803888313</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>9.515075838207009</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>32.18391704784128</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>75.66333823490373</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
-        <v>124.338107579024</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>159.1099695889952</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>167.7591540676925</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>163.770216344109</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>151.2683017714136</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>129.4361645720919</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.61489115104776</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>48.12020970937814</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>18.6507161368536</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.572684707522791</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,10 +33733,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33743,28 +33745,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054954005</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623208</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764994</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,7 +34865,7 @@
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>99.08507489005474</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
         <v>187.5255871663199</v>
@@ -34872,7 +34874,7 @@
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>28.45844197068223</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.4487373670537</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292135</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012656</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802094</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393758</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605649</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874002</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130796</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>66.78462588923419</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.2907269326837</v>
+        <v>52.65872908781438</v>
       </c>
       <c r="L6" t="n">
-        <v>138.6157555714078</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622268</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>200.6633754067318</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>161.123548150263</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528269</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472408</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>102.0686157531411</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L7" t="n">
-        <v>186.6999948493114</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M7" t="n">
-        <v>150.3034296918695</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N7" t="n">
-        <v>207.9023887233376</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="O7" t="n">
-        <v>175.8534296854533</v>
+        <v>100.201009193341</v>
       </c>
       <c r="P7" t="n">
-        <v>126.7147238369854</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6310367074677</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P9" t="n">
-        <v>535.1379358731701</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R9" t="n">
-        <v>13.85280893410651</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348409</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231598</v>
+        <v>92.63945645062408</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971897</v>
+        <v>110.4529028080739</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900911</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212425</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735793</v>
+        <v>164.3820236732831</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748827</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349593</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37391,19 +37393,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687142</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923335</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
